--- a/data/trans_orig/P21-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P21-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>395617</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>377447</v>
+        <v>378414</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>410633</v>
+        <v>411464</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.835029901177726</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7966787529324949</v>
+        <v>0.7987202633914077</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8667239813985693</v>
+        <v>0.8684789693405739</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>232</v>
@@ -765,19 +765,19 @@
         <v>238128</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>223098</v>
+        <v>221610</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>251471</v>
+        <v>252059</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7764694862607394</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7274622091613877</v>
+        <v>0.7226083623527495</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8199780204104896</v>
+        <v>0.8218943996727703</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>613</v>
@@ -786,19 +786,19 @@
         <v>633746</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>611055</v>
+        <v>609555</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>655514</v>
+        <v>654839</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8120185954285353</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7829455971246542</v>
+        <v>0.7810227484549804</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8399107015496821</v>
+        <v>0.8390456041542569</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>3418</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10874</v>
+        <v>10385</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.007214983473219165</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001647895536278795</v>
+        <v>0.001616769019919894</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02295246255809737</v>
+        <v>0.02191919547251244</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5803</v>
+        <v>5065</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.003310058951475533</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01892302660431232</v>
+        <v>0.01651400255152067</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -857,19 +857,19 @@
         <v>4433</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1521</v>
+        <v>1130</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10816</v>
+        <v>12008</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.005680544002038265</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001949120870898143</v>
+        <v>0.001447658838819193</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0138583946760202</v>
+        <v>0.01538556386844733</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>74741</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>59685</v>
+        <v>59388</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>91479</v>
+        <v>92368</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1577551153490548</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1259764226449768</v>
+        <v>0.1253499668965057</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1930839927281303</v>
+        <v>0.1949605784262258</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>65</v>
@@ -907,19 +907,19 @@
         <v>67537</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>54081</v>
+        <v>53773</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>82034</v>
+        <v>84250</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2202204547877851</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1763426977963725</v>
+        <v>0.1753392378081222</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2674918869433943</v>
+        <v>0.2747146893806108</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>136</v>
@@ -928,19 +928,19 @@
         <v>142278</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>120214</v>
+        <v>120709</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>165949</v>
+        <v>166535</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1823008605694265</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1540302882978944</v>
+        <v>0.1546643329951452</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2126302705427526</v>
+        <v>0.2133813463795803</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>299195</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>280921</v>
+        <v>282907</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>314167</v>
+        <v>313428</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.817362586414732</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7674422788607871</v>
+        <v>0.7728670773315972</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8582660105644832</v>
+        <v>0.8562453350247021</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>272</v>
@@ -1053,19 +1053,19 @@
         <v>279702</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>262991</v>
+        <v>261343</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>295652</v>
+        <v>294914</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7540678633304809</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7090159445111005</v>
+        <v>0.704574100539441</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7970676769854339</v>
+        <v>0.7950803446608289</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>557</v>
@@ -1074,19 +1074,19 @@
         <v>578897</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>557067</v>
+        <v>556989</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>599846</v>
+        <v>601521</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7855058808383466</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7558842589895596</v>
+        <v>0.7557778483708381</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8139307087390166</v>
+        <v>0.81620430269121</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>3104</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>999</v>
+        <v>980</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8395</v>
+        <v>7769</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.008480409537588687</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002730068828552371</v>
+        <v>0.002675918415911352</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02293462514154418</v>
+        <v>0.02122300224944198</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5549</v>
+        <v>5885</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.004625166054678807</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01496062748778795</v>
+        <v>0.01586471671278942</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -1145,19 +1145,19 @@
         <v>4820</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1773</v>
+        <v>1728</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>11287</v>
+        <v>11370</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.006540036777021269</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.002406146888368469</v>
+        <v>0.002345317457648254</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01531582940118444</v>
+        <v>0.01542755950573267</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>63750</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>49550</v>
+        <v>50364</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81603</v>
+        <v>80560</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1741570040476793</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1353645977678186</v>
+        <v>0.137587315137276</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2229282535974856</v>
+        <v>0.2200792771428643</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>88</v>
@@ -1195,19 +1195,19 @@
         <v>89507</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>73584</v>
+        <v>74542</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>106260</v>
+        <v>107666</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2413069706148403</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1983793933542752</v>
+        <v>0.2009637992929031</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2864743102718712</v>
+        <v>0.2902636221009385</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>149</v>
@@ -1216,19 +1216,19 @@
         <v>153257</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>133437</v>
+        <v>131158</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>175997</v>
+        <v>174959</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2079540823846321</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1810602131774039</v>
+        <v>0.1779676458778839</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.238809936402122</v>
+        <v>0.2374021767465685</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>445985</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>428065</v>
+        <v>429094</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>462243</v>
+        <v>464437</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8222599231049855</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7892208356262175</v>
+        <v>0.7911181798233881</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8522347367477184</v>
+        <v>0.8562803289804266</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>120</v>
@@ -1341,19 +1341,19 @@
         <v>121063</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>108411</v>
+        <v>108615</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>131918</v>
+        <v>132023</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7215505039908514</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6461398174778757</v>
+        <v>0.647357626254243</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7862492529661117</v>
+        <v>0.7868733480950262</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>554</v>
@@ -1362,19 +1362,19 @@
         <v>567048</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>546610</v>
+        <v>545608</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>586913</v>
+        <v>587430</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.798466754407271</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7696879884217948</v>
+        <v>0.7682766240240275</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8264383683203225</v>
+        <v>0.8271668342451922</v>
       </c>
     </row>
     <row r="13">
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5467</v>
+        <v>4839</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.001856180133954411</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01007935547873179</v>
+        <v>0.00892078011795808</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6566</v>
+        <v>6628</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01237792860044217</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03913503795520508</v>
+        <v>0.03950535658632581</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1433,19 +1433,19 @@
         <v>3084</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8817</v>
+        <v>7732</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.004342002596839895</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001253029861004611</v>
+        <v>0.00125510663446297</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01241562571197632</v>
+        <v>0.01088779113133489</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>95397</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>78967</v>
+        <v>77313</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>113157</v>
+        <v>112484</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.17588389676106</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1455903630803749</v>
+        <v>0.1425415892506012</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2086262070028657</v>
+        <v>0.2073859567144535</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>42</v>
@@ -1483,19 +1483,19 @@
         <v>44642</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>33513</v>
+        <v>33613</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>56947</v>
+        <v>57432</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2660715674087064</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1997436093649111</v>
+        <v>0.2003401138818902</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3394085197630906</v>
+        <v>0.3423016407662051</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>139</v>
@@ -1504,19 +1504,19 @@
         <v>140040</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>119007</v>
+        <v>120642</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>160434</v>
+        <v>162546</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1971912429958891</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1675745799539763</v>
+        <v>0.169877925430587</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2259090653817232</v>
+        <v>0.2288827019622086</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>1013305</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>986646</v>
+        <v>983823</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1039214</v>
+        <v>1041155</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8182808311045485</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7967527714656943</v>
+        <v>0.7944729915776023</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8392030517347719</v>
+        <v>0.8407704532514415</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>508</v>
@@ -1629,19 +1629,19 @@
         <v>525836</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>500959</v>
+        <v>501546</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>549196</v>
+        <v>547633</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7361705031358918</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7013438490450918</v>
+        <v>0.7021651651355949</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7688749368373674</v>
+        <v>0.7666869091423913</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1511</v>
@@ -1650,19 +1650,19 @@
         <v>1539141</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1501449</v>
+        <v>1502391</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1574500</v>
+        <v>1571166</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.788244156884247</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7689407860340522</v>
+        <v>0.7694233698714322</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8063526844873624</v>
+        <v>0.8046448199564231</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>7450</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3188</v>
+        <v>3096</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15511</v>
+        <v>15210</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.006016308695802684</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.002574102128939107</v>
+        <v>0.002500162067184123</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01252577427940377</v>
+        <v>0.01228277925506931</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -1700,19 +1700,19 @@
         <v>9024</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4422</v>
+        <v>4510</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16672</v>
+        <v>17085</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01263318577226856</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006191165548175843</v>
+        <v>0.006313715373150488</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02334022992556374</v>
+        <v>0.02391876953499101</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -1721,19 +1721,19 @@
         <v>16474</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9786</v>
+        <v>9152</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>25855</v>
+        <v>26975</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.008436820049471291</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005011693459813971</v>
+        <v>0.004686832715740519</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01324120417654357</v>
+        <v>0.01381457688096802</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>217579</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>192411</v>
+        <v>189206</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>245498</v>
+        <v>245790</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1757028601996488</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1553792529472925</v>
+        <v>0.1527907677539407</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1982486946245714</v>
+        <v>0.1984847372377655</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>177</v>
@@ -1771,19 +1771,19 @@
         <v>179426</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>155267</v>
+        <v>157258</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>202908</v>
+        <v>204244</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2511963110918397</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2173738427126345</v>
+        <v>0.2201620325938882</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2840714637603772</v>
+        <v>0.2859417366448886</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>391</v>
@@ -1792,19 +1792,19 @@
         <v>397005</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>364182</v>
+        <v>364562</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>437048</v>
+        <v>432590</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2033190230662817</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1865092823332429</v>
+        <v>0.1867038873328433</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2238266257306204</v>
+        <v>0.2215435787053608</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>301480</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>287867</v>
+        <v>286271</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>314374</v>
+        <v>313611</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.860006975641631</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8211752152668269</v>
+        <v>0.8166210271732657</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8967899450993461</v>
+        <v>0.894612409982405</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>409</v>
@@ -1917,19 +1917,19 @@
         <v>431293</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>409052</v>
+        <v>410584</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>454088</v>
+        <v>452536</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7583145318991092</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7192093018694911</v>
+        <v>0.721902678539344</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7983937171372376</v>
+        <v>0.795664125188986</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>701</v>
@@ -1938,19 +1938,19 @@
         <v>732773</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>708558</v>
+        <v>709165</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>757487</v>
+        <v>758383</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7970924567422453</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7707524265804946</v>
+        <v>0.7714123953074464</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8239756504742443</v>
+        <v>0.8249512629422415</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>2774</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8061</v>
+        <v>8289</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.007911848281811639</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.002562654614558372</v>
+        <v>0.00256410669812261</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02299538231514128</v>
+        <v>0.02364458705455831</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>5</v>
@@ -1988,19 +1988,19 @@
         <v>5680</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1953</v>
+        <v>1959</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>12359</v>
+        <v>12711</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.009986204977160424</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.003433377994468177</v>
+        <v>0.003444810379138488</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02173079382935205</v>
+        <v>0.02234950487049288</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>8</v>
@@ -2009,19 +2009,19 @@
         <v>8453</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3867</v>
+        <v>3682</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>16233</v>
+        <v>16357</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.009195199814242343</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.004206595189049676</v>
+        <v>0.004005610693733044</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0176574959255828</v>
+        <v>0.01779225230542773</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>46302</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>33577</v>
+        <v>34403</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>59442</v>
+        <v>60588</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1320811760765573</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09578215017787925</v>
+        <v>0.0981376410309326</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1695646253411441</v>
+        <v>0.1728355130563763</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>125</v>
@@ -2059,19 +2059,19 @@
         <v>131779</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>110136</v>
+        <v>111214</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>153064</v>
+        <v>152437</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2316992631237304</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1936445678469214</v>
+        <v>0.1955404660440921</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2691220408763808</v>
+        <v>0.2680197020678917</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>170</v>
@@ -2080,19 +2080,19 @@
         <v>178081</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>154028</v>
+        <v>153864</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>202627</v>
+        <v>202647</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1937123434435124</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1675478605707427</v>
+        <v>0.1673691978324664</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2204131470151569</v>
+        <v>0.2204347932387991</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>253377</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>239951</v>
+        <v>239859</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>265370</v>
+        <v>264803</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.8496837509057329</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8046614464808044</v>
+        <v>0.8043522962705316</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8899041909506681</v>
+        <v>0.8880008880233189</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>951</v>
@@ -2205,19 +2205,19 @@
         <v>957153</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>925013</v>
+        <v>926744</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>985557</v>
+        <v>985434</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7664829944801295</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7407452589698574</v>
+        <v>0.7421315534654652</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7892287759460916</v>
+        <v>0.7891296868884934</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1213</v>
@@ -2226,19 +2226,19 @@
         <v>1210529</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1177870</v>
+        <v>1175747</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1243058</v>
+        <v>1241667</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7825212276518891</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7614093473447823</v>
+        <v>0.7600368928665299</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.803549084738042</v>
+        <v>0.8026498391580458</v>
       </c>
     </row>
     <row r="25">
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5757</v>
+        <v>6563</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.006225443592493371</v>
@@ -2267,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01930497709425098</v>
+        <v>0.02200738381126938</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>15</v>
@@ -2276,19 +2276,19 @@
         <v>15941</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8471</v>
+        <v>9631</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>24960</v>
+        <v>26084</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01276575139351041</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00678363864770534</v>
+        <v>0.007712480438267725</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01998792150490536</v>
+        <v>0.02088821201904358</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>17</v>
@@ -2297,19 +2297,19 @@
         <v>17798</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>10755</v>
+        <v>10581</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>27952</v>
+        <v>28146</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01150500586625568</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.006952163528263588</v>
+        <v>0.006840089281446401</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01806914445940235</v>
+        <v>0.01819460742928101</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>42968</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>31392</v>
+        <v>31966</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>56308</v>
+        <v>56602</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1440908055017738</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1052702505484742</v>
+        <v>0.1071962001924058</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1888269907668133</v>
+        <v>0.1898103711515459</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>272</v>
@@ -2347,19 +2347,19 @@
         <v>275665</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>248996</v>
+        <v>248953</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>307005</v>
+        <v>304501</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2207512541263602</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1993949224493281</v>
+        <v>0.1993602532266709</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2458480384601475</v>
+        <v>0.2438430812375338</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>314</v>
@@ -2368,19 +2368,19 @@
         <v>318633</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>290076</v>
+        <v>289573</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>352130</v>
+        <v>353340</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2059737664818552</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.18751335045983</v>
+        <v>0.1871886745814587</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2276269182888093</v>
+        <v>0.2284092409961268</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>2708959</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2662678</v>
+        <v>2665064</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2748163</v>
+        <v>2754287</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.828603847930544</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8144476884428266</v>
+        <v>0.8151775152372925</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.840595623455802</v>
+        <v>0.8424686683242798</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2492</v>
@@ -2493,19 +2493,19 @@
         <v>2553175</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2502098</v>
+        <v>2502826</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2601951</v>
+        <v>2605177</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7560071434939217</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7408829985825944</v>
+        <v>0.7410983970118875</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7704499314168149</v>
+        <v>0.7714051774639923</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5149</v>
@@ -2514,19 +2514,19 @@
         <v>5262134</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5190879</v>
+        <v>5192921</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5331556</v>
+        <v>5327223</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7917163418348483</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.780995595535978</v>
+        <v>0.7813028352592277</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8021612744179594</v>
+        <v>0.801509330552898</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>19609</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12426</v>
+        <v>11935</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>30818</v>
+        <v>30038</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.005998057797589777</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.00380072012211144</v>
+        <v>0.003650553762956596</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.009426471706093344</v>
+        <v>0.009187967268530611</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>34</v>
@@ -2564,19 +2564,19 @@
         <v>35452</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>25208</v>
+        <v>24673</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>48493</v>
+        <v>47590</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01049757516548986</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.007464165745604622</v>
+        <v>0.007305692795890709</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01435891657836061</v>
+        <v>0.01409161416711098</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>53</v>
@@ -2585,19 +2585,19 @@
         <v>55062</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>40961</v>
+        <v>42567</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>71932</v>
+        <v>72519</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.008284332024831066</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.006162772615548302</v>
+        <v>0.006404467460977282</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01082260661068344</v>
+        <v>0.01091086442604543</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>540737</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>501845</v>
+        <v>494456</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>584014</v>
+        <v>585834</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1653980942718663</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1535020192821486</v>
+        <v>0.1512420170078118</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1786355920660012</v>
+        <v>0.1791921555597412</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>769</v>
@@ -2635,19 +2635,19 @@
         <v>788557</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>740402</v>
+        <v>738903</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>839550</v>
+        <v>837171</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2334952813405884</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2192366111575775</v>
+        <v>0.2187927105983911</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2485947836725499</v>
+        <v>0.2478902898589417</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1299</v>
@@ -2656,19 +2656,19 @@
         <v>1329293</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1260831</v>
+        <v>1266110</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1395123</v>
+        <v>1396359</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1999993261403206</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.189698859822012</v>
+        <v>0.1904929808386497</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2099036901696747</v>
+        <v>0.2100897759564231</v>
       </c>
     </row>
     <row r="31">
@@ -3002,19 +3002,19 @@
         <v>382170</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>365598</v>
+        <v>366825</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>395204</v>
+        <v>394666</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8741085947580108</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8362046070132415</v>
+        <v>0.839010432470386</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9039199010530559</v>
+        <v>0.9026901006929593</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>213</v>
@@ -3023,19 +3023,19 @@
         <v>233306</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>215118</v>
+        <v>215465</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>249139</v>
+        <v>248786</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.741939505565701</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6841003693387295</v>
+        <v>0.6852043549349094</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7922920510429824</v>
+        <v>0.7911692339574677</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>565</v>
@@ -3044,19 +3044,19 @@
         <v>615476</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>589461</v>
+        <v>592654</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>636486</v>
+        <v>635681</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8188165025186075</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7842075207220408</v>
+        <v>0.7884551597430458</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8467678462314104</v>
+        <v>0.8456977977265887</v>
       </c>
     </row>
     <row r="5">
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5814</v>
+        <v>5853</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0043597680869728</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01329712588511711</v>
+        <v>0.01338733824868327</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5823</v>
+        <v>6496</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.003704642444321857</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01851861464447041</v>
+        <v>0.02065749306776007</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -3115,19 +3115,19 @@
         <v>3071</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>939</v>
+        <v>950</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8449</v>
+        <v>8565</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.004085700468869233</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001248817433725949</v>
+        <v>0.001263370797493386</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01124099973019583</v>
+        <v>0.01139505903776887</v>
       </c>
     </row>
     <row r="6">
@@ -3144,19 +3144,19 @@
         <v>53135</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>40082</v>
+        <v>40233</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>69734</v>
+        <v>68760</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1215316371550163</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09167718648833009</v>
+        <v>0.092022901200205</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1594972255465843</v>
+        <v>0.1572690444538352</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>69</v>
@@ -3165,19 +3165,19 @@
         <v>79983</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>64059</v>
+        <v>64336</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>97496</v>
+        <v>96656</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2543558519899771</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2037155325139266</v>
+        <v>0.204597071424694</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3100472670961174</v>
+        <v>0.3073762837615758</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>119</v>
@@ -3186,19 +3186,19 @@
         <v>133118</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>113704</v>
+        <v>112479</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>160018</v>
+        <v>155507</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1770977970125233</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1512691263440435</v>
+        <v>0.1496396770289177</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2128850592777662</v>
+        <v>0.206883688323629</v>
       </c>
     </row>
     <row r="7">
@@ -3290,19 +3290,19 @@
         <v>347589</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>331879</v>
+        <v>330254</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>364096</v>
+        <v>363463</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8299702236670337</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7924587030761342</v>
+        <v>0.7885767221832036</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8693861235170993</v>
+        <v>0.8678742849837159</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>224</v>
@@ -3311,19 +3311,19 @@
         <v>249210</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>230813</v>
+        <v>232648</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>264338</v>
+        <v>266768</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7419963541741325</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6872201449512612</v>
+        <v>0.6926855958781933</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7870374300036411</v>
+        <v>0.7942740406340076</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>533</v>
@@ -3332,19 +3332,19 @@
         <v>596799</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>571607</v>
+        <v>571788</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>617832</v>
+        <v>619830</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.790817181646112</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.757435017052781</v>
+        <v>0.7576758260570504</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8186878498869159</v>
+        <v>0.8213353691467388</v>
       </c>
     </row>
     <row r="9">
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6516</v>
+        <v>6382</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.004658571166904491</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01555822639427607</v>
+        <v>0.0152399952536417</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5901</v>
+        <v>6812</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.005767132659045704</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01756899773436279</v>
+        <v>0.02028198520848405</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -3403,19 +3403,19 @@
         <v>3888</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>985</v>
+        <v>994</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9751</v>
+        <v>9653</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.005151939878940999</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.001305297675169102</v>
+        <v>0.001317754482317246</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01292117352305125</v>
+        <v>0.0127913981644311</v>
       </c>
     </row>
     <row r="10">
@@ -3432,19 +3432,19 @@
         <v>69257</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53580</v>
+        <v>53853</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>84167</v>
+        <v>86697</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1653712051660619</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1279382903799009</v>
+        <v>0.1285895589133299</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.200974242008877</v>
+        <v>0.2070138275245564</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>77</v>
@@ -3453,19 +3453,19 @@
         <v>84717</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>69704</v>
+        <v>67332</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>102649</v>
+        <v>101648</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2522365131668218</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2075377356718132</v>
+        <v>0.2004736380391376</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3056281470584252</v>
+        <v>0.3026465896561488</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>141</v>
@@ -3474,19 +3474,19 @@
         <v>153974</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>133615</v>
+        <v>131491</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>179796</v>
+        <v>178916</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.204030878474947</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1770535041098618</v>
+        <v>0.1742386707070624</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2382471239618851</v>
+        <v>0.2370813522890508</v>
       </c>
     </row>
     <row r="11">
@@ -3578,19 +3578,19 @@
         <v>472366</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>447119</v>
+        <v>448913</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>494530</v>
+        <v>496779</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7516235455690776</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7114510950162143</v>
+        <v>0.7143057710557067</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.786890638039239</v>
+        <v>0.7904697474878164</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>193</v>
@@ -3599,19 +3599,19 @@
         <v>206733</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>193599</v>
+        <v>192438</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>220338</v>
+        <v>218535</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.794731252101169</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7442406189491559</v>
+        <v>0.7397803932022763</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8470327806714335</v>
+        <v>0.8401019144554142</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>640</v>
@@ -3620,19 +3620,19 @@
         <v>679099</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>651666</v>
+        <v>653245</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>706321</v>
+        <v>706160</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7642430709331681</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7333705527489591</v>
+        <v>0.7351476101442578</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7948787508433457</v>
+        <v>0.794697299933996</v>
       </c>
     </row>
     <row r="13">
@@ -3649,19 +3649,19 @@
         <v>7388</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2942</v>
+        <v>3275</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14257</v>
+        <v>14649</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01175546012983805</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004681181036340186</v>
+        <v>0.00521106933058103</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02268593281713595</v>
+        <v>0.0233095333919691</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -3670,19 +3670,19 @@
         <v>2920</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8283</v>
+        <v>7726</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01122612430941976</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003402008057205003</v>
+        <v>0.003400043481179603</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03184114851162374</v>
+        <v>0.02970093288255629</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -3691,19 +3691,19 @@
         <v>10308</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4835</v>
+        <v>5039</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18376</v>
+        <v>18388</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01160050020853216</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00544114784322964</v>
+        <v>0.005671019932180383</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02068035682224352</v>
+        <v>0.02069297909139767</v>
       </c>
     </row>
     <row r="14">
@@ -3720,19 +3720,19 @@
         <v>148707</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>126962</v>
+        <v>124007</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>173064</v>
+        <v>169655</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2366209943010844</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2020198247319748</v>
+        <v>0.1973186320410514</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2753778283200543</v>
+        <v>0.2699528804994012</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>48</v>
@@ -3741,19 +3741,19 @@
         <v>50476</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>37405</v>
+        <v>39252</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>63738</v>
+        <v>64066</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1940426235894113</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1437952130218163</v>
+        <v>0.1508953418783605</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2450252021079077</v>
+        <v>0.2462838668330485</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>184</v>
@@ -3762,19 +3762,19 @@
         <v>199183</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>172687</v>
+        <v>172814</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>226332</v>
+        <v>225509</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2241564288582997</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1943385810534122</v>
+        <v>0.1944808898750741</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2547094462110994</v>
+        <v>0.2537834327890544</v>
       </c>
     </row>
     <row r="15">
@@ -3866,19 +3866,19 @@
         <v>902634</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>872737</v>
+        <v>873081</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>930830</v>
+        <v>928838</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7799596537763942</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7541254892605168</v>
+        <v>0.7544231089720385</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8043237050176463</v>
+        <v>0.8026020173811562</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>505</v>
@@ -3887,19 +3887,19 @@
         <v>544846</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>518785</v>
+        <v>515330</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>571187</v>
+        <v>568499</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7106778672948144</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6766850257953624</v>
+        <v>0.6721776738698775</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7450360774312895</v>
+        <v>0.741529941753398</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1350</v>
@@ -3908,19 +3908,19 @@
         <v>1447480</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1409169</v>
+        <v>1405668</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1488076</v>
+        <v>1488869</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7523520397891174</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7324391544297167</v>
+        <v>0.7306197057984347</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7734521777584238</v>
+        <v>0.7738643359170158</v>
       </c>
     </row>
     <row r="17">
@@ -3937,19 +3937,19 @@
         <v>12975</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7194</v>
+        <v>7069</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>21717</v>
+        <v>22041</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01121200648026997</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006216610178381427</v>
+        <v>0.006107991515432369</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01876586580784764</v>
+        <v>0.01904556935305541</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -3958,19 +3958,19 @@
         <v>8142</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3221</v>
+        <v>3114</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17268</v>
+        <v>16761</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0106203148912529</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.004200708689866823</v>
+        <v>0.004061321723797731</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02252377916841282</v>
+        <v>0.02186219493853927</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>20</v>
@@ -3979,19 +3979,19 @@
         <v>21118</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13423</v>
+        <v>12827</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>32862</v>
+        <v>32011</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01097622744195887</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006976923735547909</v>
+        <v>0.006666790070034977</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0170806872131942</v>
+        <v>0.01663847313276468</v>
       </c>
     </row>
     <row r="18">
@@ -4008,19 +4008,19 @@
         <v>241673</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>214934</v>
+        <v>216007</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>270475</v>
+        <v>273297</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2088283397433358</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1857229419783729</v>
+        <v>0.1866497383668541</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2337159466651044</v>
+        <v>0.2361542501455625</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>199</v>
@@ -4029,19 +4029,19 @@
         <v>213669</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>187664</v>
+        <v>190843</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>240216</v>
+        <v>241280</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2787018178139327</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2447815904201901</v>
+        <v>0.2489282276928294</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3133294685699297</v>
+        <v>0.3147170915513693</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>422</v>
@@ -4050,19 +4050,19 @@
         <v>455342</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>417487</v>
+        <v>413742</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>495605</v>
+        <v>496332</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2366717327689238</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2169957446259291</v>
+        <v>0.2150495339796027</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2575988484297677</v>
+        <v>0.2579770002055016</v>
       </c>
     </row>
     <row r="19">
@@ -4154,19 +4154,19 @@
         <v>401636</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>383284</v>
+        <v>380284</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>421065</v>
+        <v>419037</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7866016760584846</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7506592729352101</v>
+        <v>0.7447843810427762</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8246548355874779</v>
+        <v>0.8206814642393829</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>487</v>
@@ -4175,19 +4175,19 @@
         <v>528790</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>501936</v>
+        <v>501381</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>558144</v>
+        <v>554802</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6952607762846692</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6599532523383813</v>
+        <v>0.6592232666493807</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.733856431102951</v>
+        <v>0.7294624587644586</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>868</v>
@@ -4196,19 +4196,19 @@
         <v>930425</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>899664</v>
+        <v>894080</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>964045</v>
+        <v>962475</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7319503811334992</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7077509214751783</v>
+        <v>0.7033581742681808</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7583982227089053</v>
+        <v>0.7571629707861585</v>
       </c>
     </row>
     <row r="21">
@@ -4225,19 +4225,19 @@
         <v>9002</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4761</v>
+        <v>4282</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>16877</v>
+        <v>16534</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01763116890861516</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.009323463766090863</v>
+        <v>0.008386196910345861</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03305385326109529</v>
+        <v>0.03238135631841899</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>11</v>
@@ -4246,19 +4246,19 @@
         <v>12481</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6418</v>
+        <v>6201</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>22129</v>
+        <v>22332</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01641038663426711</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.008438349580817781</v>
+        <v>0.008153013519023386</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02909554977678569</v>
+        <v>0.02936289854747562</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>20</v>
@@ -4267,19 +4267,19 @@
         <v>21484</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>12880</v>
+        <v>13596</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>31748</v>
+        <v>33384</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01690074768132487</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01013213588356438</v>
+        <v>0.01069604088083477</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02497600388976676</v>
+        <v>0.02626254798082458</v>
       </c>
     </row>
     <row r="22">
@@ -4296,19 +4296,19 @@
         <v>99958</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>81796</v>
+        <v>83556</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>118317</v>
+        <v>122092</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1957671550329002</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1601976671003592</v>
+        <v>0.1636433127963402</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2317224663729756</v>
+        <v>0.2391173864474549</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>204</v>
@@ -4317,19 +4317,19 @@
         <v>219292</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>190758</v>
+        <v>193706</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>245214</v>
+        <v>245103</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2883288370810637</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2508119247665664</v>
+        <v>0.2546882608416179</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3224109148753625</v>
+        <v>0.3222649919547004</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>301</v>
@@ -4338,19 +4338,19 @@
         <v>319250</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>287661</v>
+        <v>287325</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>350209</v>
+        <v>353875</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2511488711851759</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2262981495371826</v>
+        <v>0.2260341964450164</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2755040809099946</v>
+        <v>0.2783880295744042</v>
       </c>
     </row>
     <row r="23">
@@ -4442,19 +4442,19 @@
         <v>207217</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>193093</v>
+        <v>193021</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>219928</v>
+        <v>219647</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.7764381087492377</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7235136940387901</v>
+        <v>0.7232445210307069</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8240661702767145</v>
+        <v>0.8230129873148095</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>759</v>
@@ -4463,19 +4463,19 @@
         <v>806818</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>772283</v>
+        <v>773973</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>833450</v>
+        <v>835738</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7272879636219138</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6961575472755096</v>
+        <v>0.6976806093856565</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7512949481862424</v>
+        <v>0.7533574460894569</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>965</v>
@@ -4484,19 +4484,19 @@
         <v>1014035</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>980431</v>
+        <v>976306</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1047213</v>
+        <v>1046530</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7368192593188824</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7124022333253035</v>
+        <v>0.7094046368312283</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7609268164884763</v>
+        <v>0.7604305663505594</v>
       </c>
     </row>
     <row r="25">
@@ -4516,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6522</v>
+        <v>5615</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.006900290935803107</v>
@@ -4525,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02443921380234045</v>
+        <v>0.02103774877602983</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>25</v>
@@ -4534,19 +4534,19 @@
         <v>26645</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17166</v>
+        <v>17140</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>37355</v>
+        <v>37590</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02401821151670001</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01547367904198685</v>
+        <v>0.01545065047210034</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03367328332866578</v>
+        <v>0.03388508640933242</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>27</v>
@@ -4555,19 +4555,19 @@
         <v>28486</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>19881</v>
+        <v>19519</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>40382</v>
+        <v>41385</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02069866968521418</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01444584940389347</v>
+        <v>0.0141832688446287</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02934240125953018</v>
+        <v>0.03007153357972685</v>
       </c>
     </row>
     <row r="26">
@@ -4584,19 +4584,19 @@
         <v>57823</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>45710</v>
+        <v>45292</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>72388</v>
+        <v>72157</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2166616003149592</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1712740220339049</v>
+        <v>0.1697091600372599</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2712364317938524</v>
+        <v>0.2703721076051014</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>260</v>
@@ -4605,19 +4605,19 @@
         <v>275889</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>249235</v>
+        <v>248674</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>310268</v>
+        <v>308234</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2486938248613861</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.224667468790493</v>
+        <v>0.2241619339630659</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2796846232502855</v>
+        <v>0.2778505602411578</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>317</v>
@@ -4626,19 +4626,19 @@
         <v>333712</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>299035</v>
+        <v>303316</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>365632</v>
+        <v>368716</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2424820709959035</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.217284924449337</v>
+        <v>0.2203956315313805</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2656759567664652</v>
+        <v>0.2679167528319037</v>
       </c>
     </row>
     <row r="27">
@@ -4730,19 +4730,19 @@
         <v>2713611</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2664147</v>
+        <v>2663393</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2763388</v>
+        <v>2760945</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7936325077404542</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.779166048985846</v>
+        <v>0.7789454053155078</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8081903319709417</v>
+        <v>0.8074757806186126</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2381</v>
@@ -4751,19 +4751,19 @@
         <v>2569703</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2514038</v>
+        <v>2521551</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2624954</v>
+        <v>2631933</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7244682179989215</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.708774779664492</v>
+        <v>0.7108926844789785</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7400449246571754</v>
+        <v>0.7420123191096838</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4921</v>
@@ -4772,19 +4772,19 @@
         <v>5283315</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5209867</v>
+        <v>5205760</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5355837</v>
+        <v>5359097</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.758415979999293</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7478725993258895</v>
+        <v>0.7472830976380299</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7688264541519978</v>
+        <v>0.7692944616073067</v>
       </c>
     </row>
     <row r="29">
@@ -4801,19 +4801,19 @@
         <v>35064</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>25195</v>
+        <v>25055</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>48609</v>
+        <v>48883</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01025506279420571</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.00736865383939326</v>
+        <v>0.007327550238376296</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01421632105779834</v>
+        <v>0.01429653332761582</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>49</v>
@@ -4822,19 +4822,19 @@
         <v>53290</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>39277</v>
+        <v>39535</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>72008</v>
+        <v>70201</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0150239006936599</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01107315576452996</v>
+        <v>0.01114610336781631</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0203010977588111</v>
+        <v>0.01979155598433069</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>84</v>
@@ -4843,19 +4843,19 @@
         <v>88354</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>70325</v>
+        <v>71823</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>108305</v>
+        <v>109709</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01268322207707884</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01009514252435493</v>
+        <v>0.01031009055578293</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01554714564265101</v>
+        <v>0.01574867656166664</v>
       </c>
     </row>
     <row r="30">
@@ -4872,19 +4872,19 @@
         <v>670553</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>622289</v>
+        <v>622493</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>720631</v>
+        <v>717726</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1961124294653401</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1819967476685338</v>
+        <v>0.1820566076316403</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2107583867051868</v>
+        <v>0.2099087286441849</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>857</v>
@@ -4893,19 +4893,19 @@
         <v>924027</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>867373</v>
+        <v>868422</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>976517</v>
+        <v>974037</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2605078813074186</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2445356328844989</v>
+        <v>0.244831537566455</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2753064263680273</v>
+        <v>0.274607110483186</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1484</v>
@@ -4914,19 +4914,19 @@
         <v>1594580</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1523343</v>
+        <v>1520816</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1670686</v>
+        <v>1666906</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2289007979236282</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2186747964686876</v>
+        <v>0.2183120628389502</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2398257393010559</v>
+        <v>0.2392831255495794</v>
       </c>
     </row>
     <row r="31">
@@ -5260,19 +5260,19 @@
         <v>364851</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>349857</v>
+        <v>349904</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>379708</v>
+        <v>380297</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.850285993116378</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.815343383597269</v>
+        <v>0.8154514207852215</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8849101671455626</v>
+        <v>0.8862826484602627</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>256</v>
@@ -5281,19 +5281,19 @@
         <v>268266</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>251731</v>
+        <v>251797</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>282853</v>
+        <v>282872</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7790098400163449</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7309947104536219</v>
+        <v>0.7311846773713835</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8213672953331929</v>
+        <v>0.8214227820804452</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>595</v>
@@ -5302,19 +5302,19 @@
         <v>633117</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>607200</v>
+        <v>609956</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>653933</v>
+        <v>654963</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8185516884634562</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7850438936566397</v>
+        <v>0.7886074322638047</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8454650428363298</v>
+        <v>0.846796626215746</v>
       </c>
     </row>
     <row r="5">
@@ -5331,19 +5331,19 @@
         <v>3399</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9737</v>
+        <v>9475</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.007920758604889628</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.00218571438775798</v>
+        <v>0.002175830621911766</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02269285112944671</v>
+        <v>0.02208242840089521</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -5352,19 +5352,19 @@
         <v>7561</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3061</v>
+        <v>3297</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15009</v>
+        <v>14586</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02195609779533042</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.008888083152762126</v>
+        <v>0.009573299452483603</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04358500771912873</v>
+        <v>0.04235514710499855</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -5373,19 +5373,19 @@
         <v>10960</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5792</v>
+        <v>5367</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19232</v>
+        <v>19892</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01416971720330667</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.007488510294799322</v>
+        <v>0.00693936715190996</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02486464933060272</v>
+        <v>0.02571772031154449</v>
       </c>
     </row>
     <row r="6">
@@ -5402,19 +5402,19 @@
         <v>60842</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>47028</v>
+        <v>47228</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>76485</v>
+        <v>76316</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1417932482787324</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1095979725821504</v>
+        <v>0.1100656542203392</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1782473289778929</v>
+        <v>0.177854305809838</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>67</v>
@@ -5423,19 +5423,19 @@
         <v>68541</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>55264</v>
+        <v>55349</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>85066</v>
+        <v>85925</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1990340621883247</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1604794631830473</v>
+        <v>0.1607269152940441</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2470207113223104</v>
+        <v>0.2495163918374499</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>121</v>
@@ -5444,19 +5444,19 @@
         <v>129383</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>108572</v>
+        <v>107201</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>153874</v>
+        <v>150673</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1672785943332372</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1403718740714827</v>
+        <v>0.1385987983124388</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1989418444103212</v>
+        <v>0.1948036681708119</v>
       </c>
     </row>
     <row r="7">
@@ -5548,19 +5548,19 @@
         <v>320253</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>304729</v>
+        <v>304756</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>333910</v>
+        <v>333031</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8533265780183633</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8119607148093435</v>
+        <v>0.8120342407495276</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8897157226599161</v>
+        <v>0.8873727876203326</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>273</v>
@@ -5569,19 +5569,19 @@
         <v>289050</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>272738</v>
+        <v>271381</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>305111</v>
+        <v>305688</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7782936805439966</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7343736036657744</v>
+        <v>0.730718619718163</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8215398440867386</v>
+        <v>0.823092568998759</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>573</v>
@@ -5590,19 +5590,19 @@
         <v>609303</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>587554</v>
+        <v>585475</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>630681</v>
+        <v>629252</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8160066366171072</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7868787758912198</v>
+        <v>0.7840951981227777</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8446370299699878</v>
+        <v>0.842723390026381</v>
       </c>
     </row>
     <row r="9">
@@ -5619,19 +5619,19 @@
         <v>3667</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>986</v>
+        <v>930</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9280</v>
+        <v>8494</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.009771640053164403</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002627368505190437</v>
+        <v>0.002477009650425883</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02472754182863138</v>
+        <v>0.02263379601045627</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -5640,19 +5640,19 @@
         <v>4053</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1140</v>
+        <v>1064</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9642</v>
+        <v>9733</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01091283467162117</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.00306976536442845</v>
+        <v>0.002864636576912941</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02596330429972638</v>
+        <v>0.02620569159506255</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
@@ -5661,19 +5661,19 @@
         <v>7720</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3659</v>
+        <v>3582</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>15711</v>
+        <v>15245</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01033924863182532</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.004900492399258939</v>
+        <v>0.004796640791799932</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02104065489372917</v>
+        <v>0.0204167373879575</v>
       </c>
     </row>
     <row r="10">
@@ -5690,19 +5690,19 @@
         <v>51379</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38104</v>
+        <v>38579</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>65927</v>
+        <v>66539</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1369017819284722</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1015292807946567</v>
+        <v>0.1027945604920484</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1756645827424281</v>
+        <v>0.1772958106112026</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -5711,19 +5711,19 @@
         <v>78286</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62660</v>
+        <v>62042</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>95348</v>
+        <v>94673</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2107934847843823</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1687177758101471</v>
+        <v>0.1670552015337579</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2567347669478404</v>
+        <v>0.2549150073867797</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>122</v>
@@ -5732,19 +5732,19 @@
         <v>129666</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>108400</v>
+        <v>109737</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>150506</v>
+        <v>152437</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1736541147510675</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1451741566819154</v>
+        <v>0.1469654085726587</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2015641138879178</v>
+        <v>0.2041502820158372</v>
       </c>
     </row>
     <row r="11">
@@ -5836,19 +5836,19 @@
         <v>431459</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>410355</v>
+        <v>413717</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>447680</v>
+        <v>448432</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8266851390708944</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7862510385618524</v>
+        <v>0.7926921871680934</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.857766512063575</v>
+        <v>0.859206109978337</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>123</v>
@@ -5857,19 +5857,19 @@
         <v>133365</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>121520</v>
+        <v>122674</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>142370</v>
+        <v>143099</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8106976586026284</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7386968817625995</v>
+        <v>0.7457130607344027</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8654422411342413</v>
+        <v>0.8698681624466875</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>541</v>
@@ -5878,19 +5878,19 @@
         <v>564823</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>541974</v>
+        <v>542571</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>584220</v>
+        <v>583088</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8228536030024102</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.789565494736194</v>
+        <v>0.7904361377051634</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8511111411592022</v>
+        <v>0.8494623305836534</v>
       </c>
     </row>
     <row r="13">
@@ -5907,19 +5907,19 @@
         <v>6437</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2640</v>
+        <v>2768</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14409</v>
+        <v>13779</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01233304328389898</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005058360880084599</v>
+        <v>0.005303725817989866</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02760888691159073</v>
+        <v>0.02640002708441156</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7356</v>
+        <v>9121</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01454184320192849</v>
@@ -5940,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04471752282213619</v>
+        <v>0.05544336617957413</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -5949,19 +5949,19 @@
         <v>8829</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4055</v>
+        <v>4091</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16677</v>
+        <v>16980</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01286240102546393</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005907731258378065</v>
+        <v>0.005959201516018676</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02429619547893732</v>
+        <v>0.02473724176928131</v>
       </c>
     </row>
     <row r="14">
@@ -5978,19 +5978,19 @@
         <v>84019</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>68945</v>
+        <v>67808</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>104006</v>
+        <v>102280</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1609818176452067</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.132100932167238</v>
+        <v>0.1299225408309021</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1992772300107797</v>
+        <v>0.1959703496457375</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>27</v>
@@ -5999,19 +5999,19 @@
         <v>28749</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>19867</v>
+        <v>18551</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>39725</v>
+        <v>38339</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.174760498195443</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1207701726131609</v>
+        <v>0.1127663130682107</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2414797208048919</v>
+        <v>0.2330556472700742</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>105</v>
@@ -6020,19 +6020,19 @@
         <v>112768</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>94174</v>
+        <v>94555</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>134705</v>
+        <v>134145</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1642839959721259</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1371955519218069</v>
+        <v>0.1377513360728681</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1962422372577337</v>
+        <v>0.1954273240913815</v>
       </c>
     </row>
     <row r="15">
@@ -6124,19 +6124,19 @@
         <v>953398</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>926615</v>
+        <v>927722</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>978142</v>
+        <v>978700</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8326214027739057</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8092315887092978</v>
+        <v>0.8101977291628587</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8542304070366847</v>
+        <v>0.854718368295628</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>606</v>
@@ -6145,19 +6145,19 @@
         <v>624256</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>599057</v>
+        <v>598547</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>648688</v>
+        <v>648235</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7558716520044867</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7253598612290182</v>
+        <v>0.7247415463746621</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7854548578661534</v>
+        <v>0.7849061122640224</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1522</v>
@@ -6166,19 +6166,19 @@
         <v>1577654</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1540155</v>
+        <v>1536538</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1612447</v>
+        <v>1613110</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8004610958034488</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7814351240536359</v>
+        <v>0.7795997681558019</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8181141358037981</v>
+        <v>0.8184502864186367</v>
       </c>
     </row>
     <row r="17">
@@ -6195,19 +6195,19 @@
         <v>16313</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9779</v>
+        <v>9434</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26263</v>
+        <v>26543</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01424626652133176</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008540276376219576</v>
+        <v>0.008238603269851283</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02293634909096754</v>
+        <v>0.02318071201914082</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -6216,19 +6216,19 @@
         <v>11441</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5819</v>
+        <v>5476</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20292</v>
+        <v>20523</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01385320299577154</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.007046314402164913</v>
+        <v>0.006630311620453343</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02457042893405261</v>
+        <v>0.02485046418428621</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>25</v>
@@ -6237,19 +6237,19 @@
         <v>27754</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>18568</v>
+        <v>18950</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>40768</v>
+        <v>42038</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01408156183481252</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.009420789534285523</v>
+        <v>0.00961449609054037</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0206848334308968</v>
+        <v>0.02132895297904289</v>
       </c>
     </row>
     <row r="18">
@@ -6266,19 +6266,19 @@
         <v>175345</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>151014</v>
+        <v>151198</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>200871</v>
+        <v>199720</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1531323307047625</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1318839025332786</v>
+        <v>0.1320440119461659</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1754248463181181</v>
+        <v>0.1744196702161802</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>182</v>
@@ -6287,19 +6287,19 @@
         <v>190179</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>167795</v>
+        <v>166120</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>216049</v>
+        <v>214564</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2302751449997418</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2031719632711915</v>
+        <v>0.2011441191909061</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2615996967371428</v>
+        <v>0.2598012487478516</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>350</v>
@@ -6308,19 +6308,19 @@
         <v>365524</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>332853</v>
+        <v>329431</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>402024</v>
+        <v>402329</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1854573423617386</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1688811392886748</v>
+        <v>0.1671445732299758</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2039765046777426</v>
+        <v>0.2041313525715726</v>
       </c>
     </row>
     <row r="19">
@@ -6412,19 +6412,19 @@
         <v>516656</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>496748</v>
+        <v>498269</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>533882</v>
+        <v>535633</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8379789746183121</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8056894343670266</v>
+        <v>0.8081564302710128</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8659189508022436</v>
+        <v>0.8687591092630577</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>557</v>
@@ -6433,19 +6433,19 @@
         <v>586610</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>563684</v>
+        <v>561481</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>608410</v>
+        <v>607700</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7946021306557194</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7635463804448932</v>
+        <v>0.7605626167984124</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8241316780903162</v>
+        <v>0.8231691542012991</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1056</v>
@@ -6454,19 +6454,19 @@
         <v>1103266</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1072503</v>
+        <v>1072581</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1133057</v>
+        <v>1129930</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8143423875614336</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7916353345869491</v>
+        <v>0.791692780077184</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8363313578010563</v>
+        <v>0.8340232626075526</v>
       </c>
     </row>
     <row r="21">
@@ -6483,19 +6483,19 @@
         <v>13423</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7615</v>
+        <v>7151</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>21662</v>
+        <v>21411</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02177167645115301</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01235112843725371</v>
+        <v>0.01159862323330996</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03513469228992275</v>
+        <v>0.03472693593418457</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>14</v>
@@ -6504,19 +6504,19 @@
         <v>15452</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8189</v>
+        <v>8724</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>24725</v>
+        <v>25439</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02093084344061477</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01109256454498183</v>
+        <v>0.01181763036670821</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03349218577927215</v>
+        <v>0.03445900119693653</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>28</v>
@@ -6525,19 +6525,19 @@
         <v>28875</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>19511</v>
+        <v>19453</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>42130</v>
+        <v>41341</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02131349598345869</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01440116051212033</v>
+        <v>0.01435892748554108</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03109697613435721</v>
+        <v>0.0305146081706308</v>
       </c>
     </row>
     <row r="22">
@@ -6554,19 +6554,19 @@
         <v>86471</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>70793</v>
+        <v>68203</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>104460</v>
+        <v>104744</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1402493489305349</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.114820930217224</v>
+        <v>0.1106208803543822</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1694260131364069</v>
+        <v>0.1698864944079448</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>128</v>
@@ -6575,19 +6575,19 @@
         <v>136182</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>115617</v>
+        <v>115756</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>158691</v>
+        <v>160140</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1844670259036658</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1566103855834697</v>
+        <v>0.156799081506628</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2149571530837799</v>
+        <v>0.2169195894740718</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>208</v>
@@ -6596,19 +6596,19 @@
         <v>222652</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>194784</v>
+        <v>198233</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>250334</v>
+        <v>251498</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1643441164551077</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1437737976006403</v>
+        <v>0.1463194268801728</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1847763819166595</v>
+        <v>0.1856356795306173</v>
       </c>
     </row>
     <row r="23">
@@ -6700,19 +6700,19 @@
         <v>223850</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>208288</v>
+        <v>208614</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>236788</v>
+        <v>238510</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.7795718170196171</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7253766315791507</v>
+        <v>0.7265127175005343</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.824628765448815</v>
+        <v>0.8306240644219465</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>798</v>
@@ -6721,19 +6721,19 @@
         <v>862110</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>833965</v>
+        <v>836043</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>891108</v>
+        <v>888427</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7976935062678626</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.771651421445827</v>
+        <v>0.7735734309306833</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8245248021758076</v>
+        <v>0.8220435432191803</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1010</v>
@@ -6742,19 +6742,19 @@
         <v>1085961</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1052638</v>
+        <v>1055487</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1116392</v>
+        <v>1114926</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7938894568392074</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.769529214503436</v>
+        <v>0.7716114582564895</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8161363438757532</v>
+        <v>0.8150643103496825</v>
       </c>
     </row>
     <row r="25">
@@ -6771,19 +6771,19 @@
         <v>2969</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7802</v>
+        <v>7939</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01033886301368691</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00335347580025022</v>
+        <v>0.003337128581694848</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02717091028640164</v>
+        <v>0.0276490209362885</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>16</v>
@@ -6792,19 +6792,19 @@
         <v>19657</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11120</v>
+        <v>12437</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>30390</v>
+        <v>32443</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01818789745234109</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0102890647221137</v>
+        <v>0.01150740338954441</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02811910621040901</v>
+        <v>0.03001893634696915</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>19</v>
@@ -6813,19 +6813,19 @@
         <v>22625</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13392</v>
+        <v>14038</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>34647</v>
+        <v>35330</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01654025221558433</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.009789835712065955</v>
+        <v>0.01026236107936782</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02532875749840595</v>
+        <v>0.0258280471214714</v>
       </c>
     </row>
     <row r="26">
@@ -6842,19 +6842,19 @@
         <v>60326</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>47684</v>
+        <v>46968</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>75654</v>
+        <v>76126</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.210089319966696</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1660632340150925</v>
+        <v>0.1635675734816864</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2634698454137009</v>
+        <v>0.2651137121615743</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>177</v>
@@ -6863,19 +6863,19 @@
         <v>198987</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>173113</v>
+        <v>172434</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>226759</v>
+        <v>224863</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1841185962797963</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1601776967350748</v>
+        <v>0.1595501807287482</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2098153093482635</v>
+        <v>0.2080611951201831</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>234</v>
@@ -6884,19 +6884,19 @@
         <v>259313</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>232168</v>
+        <v>231140</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>293731</v>
+        <v>289542</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1895702909452083</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1697261140734336</v>
+        <v>0.1689744781485429</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2147315247051264</v>
+        <v>0.2116688710279899</v>
       </c>
     </row>
     <row r="27">
@@ -6988,19 +6988,19 @@
         <v>2810466</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2765117</v>
+        <v>2763914</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2851737</v>
+        <v>2852284</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8327169422038013</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8192804570369306</v>
+        <v>0.8189240390158904</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8449452146897041</v>
+        <v>0.8451072698081991</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2613</v>
@@ -7009,19 +7009,19 @@
         <v>2763657</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2716614</v>
+        <v>2716286</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2812618</v>
+        <v>2812396</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.783985806682455</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7706406133591509</v>
+        <v>0.7705475082272846</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7978747770005907</v>
+        <v>0.7978118935721216</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5297</v>
@@ -7030,19 +7030,19 @@
         <v>5574124</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5511455</v>
+        <v>5506828</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5649078</v>
+        <v>5639632</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8078214184389472</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7987392640196523</v>
+        <v>0.7980687406701191</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8186840825216382</v>
+        <v>0.8173151207980037</v>
       </c>
     </row>
     <row r="29">
@@ -7059,19 +7059,19 @@
         <v>46208</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>35376</v>
+        <v>34557</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>63271</v>
+        <v>62870</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01369092962833723</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01048164008721109</v>
+        <v>0.01023887416957148</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0187466934036133</v>
+        <v>0.01862789927520331</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>53</v>
@@ -7080,19 +7080,19 @@
         <v>60556</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>44527</v>
+        <v>45839</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>78225</v>
+        <v>80303</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0171782953919731</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01263118106348785</v>
+        <v>0.01300351130533295</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02219069575929121</v>
+        <v>0.02278004623277463</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>98</v>
@@ -7101,19 +7101,19 @@
         <v>106763</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>88364</v>
+        <v>86382</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>133815</v>
+        <v>126850</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01547253796388083</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01280599108036726</v>
+        <v>0.0125187079334873</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01939288858547107</v>
+        <v>0.01838354721325815</v>
       </c>
     </row>
     <row r="30">
@@ -7130,19 +7130,19 @@
         <v>518382</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>478483</v>
+        <v>478256</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>563444</v>
+        <v>563516</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1535921281678614</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1417702428651511</v>
+        <v>0.1417032141475476</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1669435167202201</v>
+        <v>0.1669650409955787</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>655</v>
@@ -7151,19 +7151,19 @@
         <v>700924</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>655367</v>
+        <v>656379</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>742385</v>
+        <v>748939</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1988358979255719</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1859123808385023</v>
+        <v>0.1861994763276668</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2105974071050533</v>
+        <v>0.2124565680455827</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1140</v>
@@ -7172,19 +7172,19 @@
         <v>1219306</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1151743</v>
+        <v>1152318</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1284543</v>
+        <v>1282954</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.176706043597172</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1669146786856801</v>
+        <v>0.1669979017744192</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1861605017852292</v>
+        <v>0.1859301482988669</v>
       </c>
     </row>
     <row r="31">
@@ -7518,19 +7518,19 @@
         <v>417897</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>398168</v>
+        <v>396785</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>439262</v>
+        <v>439973</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7616844788152364</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7257255492041341</v>
+        <v>0.7232044809118661</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8006267509585561</v>
+        <v>0.8019219484759369</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>526</v>
@@ -7539,19 +7539,19 @@
         <v>369702</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>353060</v>
+        <v>352405</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>386019</v>
+        <v>386851</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.7581090403034686</v>
+        <v>0.7581090403034685</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7239845266261283</v>
+        <v>0.7226400800410272</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7915687994792736</v>
+        <v>0.7932743878554748</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>955</v>
@@ -7560,19 +7560,19 @@
         <v>787598</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>757079</v>
+        <v>761350</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>812128</v>
+        <v>812647</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7600019638130927</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7305522018917819</v>
+        <v>0.7346743397909913</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7836729571658831</v>
+        <v>0.7841736203717389</v>
       </c>
     </row>
     <row r="5">
@@ -7589,19 +7589,19 @@
         <v>5273</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2361</v>
+        <v>2258</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12073</v>
+        <v>12179</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.009611514389754574</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004303113887588563</v>
+        <v>0.004114992473563246</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0220043997770271</v>
+        <v>0.02219894684806359</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -7610,19 +7610,19 @@
         <v>4207</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1354</v>
+        <v>1154</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11021</v>
+        <v>10556</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.008626556730376161</v>
+        <v>0.008626556730376159</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002775748180344614</v>
+        <v>0.00236620885510516</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02259917168425017</v>
+        <v>0.02164609493618355</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -7631,19 +7631,19 @@
         <v>9480</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5011</v>
+        <v>4970</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>17477</v>
+        <v>17785</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.009148017106015517</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.004835088311587472</v>
+        <v>0.004796214528130715</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01686442368006486</v>
+        <v>0.01716179979681682</v>
       </c>
     </row>
     <row r="6">
@@ -7660,19 +7660,19 @@
         <v>125478</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>103964</v>
+        <v>104241</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>145679</v>
+        <v>146824</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.228704006795009</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1894921573271277</v>
+        <v>0.1899965424273844</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2655229584748869</v>
+        <v>0.2676108041449743</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>154</v>
@@ -7681,19 +7681,19 @@
         <v>113754</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>97483</v>
+        <v>97266</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>130178</v>
+        <v>130989</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2332644029661553</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1998977083327161</v>
+        <v>0.1994538209589319</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2669418879395173</v>
+        <v>0.2686057543586787</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>272</v>
@@ -7702,19 +7702,19 @@
         <v>239232</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>212977</v>
+        <v>215821</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>270037</v>
+        <v>266120</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2308500190808917</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2055151193251034</v>
+        <v>0.2082592707100023</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2605751488845042</v>
+        <v>0.2567953594347908</v>
       </c>
     </row>
     <row r="7">
@@ -7806,19 +7806,19 @@
         <v>400990</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>382552</v>
+        <v>384724</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>416064</v>
+        <v>418548</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8298422383106935</v>
+        <v>0.8298422383106934</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7916861709979003</v>
+        <v>0.7961815766248276</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.861037947086995</v>
+        <v>0.8661795447838304</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>444</v>
@@ -7827,19 +7827,19 @@
         <v>313111</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>296258</v>
+        <v>296347</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>329520</v>
+        <v>327986</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7414936769998444</v>
+        <v>0.7414936769998443</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.701583547499037</v>
+        <v>0.7017959012374784</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7803537754757028</v>
+        <v>0.7767211091673747</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>844</v>
@@ -7848,19 +7848,19 @@
         <v>714100</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>688861</v>
+        <v>688124</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>736335</v>
+        <v>737733</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7886410299141335</v>
+        <v>0.7886410299141337</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7607673389204528</v>
+        <v>0.7599528001366289</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8131964202805455</v>
+        <v>0.8147406765232438</v>
       </c>
     </row>
     <row r="9">
@@ -7890,19 +7890,19 @@
         <v>4203</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1565</v>
+        <v>1956</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8396</v>
+        <v>9529</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.009953825900195225</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.003705260088137854</v>
+        <v>0.004632035586247441</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01988311038744143</v>
+        <v>0.02256613877874544</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -7911,19 +7911,19 @@
         <v>4203</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1543</v>
+        <v>1931</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9199</v>
+        <v>8866</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.004641950578165848</v>
+        <v>0.00464195057816585</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.001704168401042014</v>
+        <v>0.002132773702837776</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01015901881130185</v>
+        <v>0.009791570341994614</v>
       </c>
     </row>
     <row r="10">
@@ -7940,19 +7940,19 @@
         <v>82222</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>67148</v>
+        <v>64664</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>100660</v>
+        <v>98488</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1701577616893067</v>
+        <v>0.1701577616893066</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.138962052913005</v>
+        <v>0.1338204552161696</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2083138290020998</v>
+        <v>0.2038184233751724</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>139</v>
@@ -7961,19 +7961,19 @@
         <v>104956</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>89120</v>
+        <v>90350</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>121918</v>
+        <v>123004</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2485524970999605</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2110487855670101</v>
+        <v>0.2139627832666494</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2887216155783735</v>
+        <v>0.2912926342319889</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>220</v>
@@ -7982,19 +7982,19 @@
         <v>187179</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>164801</v>
+        <v>163368</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>211516</v>
+        <v>212587</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2067170195077005</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1820038616780646</v>
+        <v>0.1804214187084595</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2335951189074433</v>
+        <v>0.2347782395223282</v>
       </c>
     </row>
     <row r="11">
@@ -8086,19 +8086,19 @@
         <v>374885</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>356326</v>
+        <v>355136</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>393114</v>
+        <v>390715</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7949018310701061</v>
+        <v>0.794901831070106</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.755549540142325</v>
+        <v>0.7530261388714526</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8335543719764396</v>
+        <v>0.8284680468086854</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>204</v>
@@ -8107,19 +8107,19 @@
         <v>127973</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>116519</v>
+        <v>117149</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>138746</v>
+        <v>138280</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6850634695869025</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6237491760409581</v>
+        <v>0.6271204248219597</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7427319673131004</v>
+        <v>0.7402397091896491</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>594</v>
@@ -8128,19 +8128,19 @@
         <v>502858</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>480160</v>
+        <v>480727</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>524035</v>
+        <v>523398</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7637386694399458</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7292651182944894</v>
+        <v>0.730126609315069</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7959033447055301</v>
+        <v>0.7949348338517285</v>
       </c>
     </row>
     <row r="13">
@@ -8160,16 +8160,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6543</v>
+        <v>5858</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.003620753540273805</v>
+        <v>0.003620753540273804</v>
       </c>
       <c r="H13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01387320705431024</v>
+        <v>0.01242175853494449</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2471</v>
+        <v>2727</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002605298488401458</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01322698017289658</v>
+        <v>0.01459857687119596</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -8199,19 +8199,19 @@
         <v>2194</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7205</v>
+        <v>6420</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.003332650281245312</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0007310031568852108</v>
+        <v>0.0007461281259360129</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01094300720848417</v>
+        <v>0.009749922812407743</v>
       </c>
     </row>
     <row r="14">
@@ -8228,19 +8228,19 @@
         <v>95019</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>77171</v>
+        <v>79229</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>112852</v>
+        <v>113430</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2014774153896202</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1636331408505926</v>
+        <v>0.1679953312623321</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2392892624821574</v>
+        <v>0.2405151606019781</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>83</v>
@@ -8249,19 +8249,19 @@
         <v>58345</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>47589</v>
+        <v>47892</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>69564</v>
+        <v>69286</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.312331231924696</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2547497968110153</v>
+        <v>0.2563733603334042</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3723904608712258</v>
+        <v>0.3708974828304696</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>179</v>
@@ -8270,19 +8270,19 @@
         <v>153364</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>131834</v>
+        <v>133037</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>175458</v>
+        <v>175623</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2329286802788088</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.20022962406997</v>
+        <v>0.2020566360113639</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2664857512599381</v>
+        <v>0.2667349306481798</v>
       </c>
     </row>
     <row r="15">
@@ -8374,19 +8374,19 @@
         <v>881335</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>845877</v>
+        <v>844957</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>912126</v>
+        <v>909483</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.7786726555467433</v>
+        <v>0.7786726555467435</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7473452200779093</v>
+        <v>0.7465320766042383</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.805876892825134</v>
+        <v>0.803541351410539</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>891</v>
@@ -8395,19 +8395,19 @@
         <v>615913</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>591405</v>
+        <v>591884</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>640061</v>
+        <v>638038</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7151710104292235</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6867127027422588</v>
+        <v>0.687269511478846</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7432102329621045</v>
+        <v>0.7408619723428362</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1768</v>
@@ -8416,19 +8416,19 @@
         <v>1497248</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1457282</v>
+        <v>1457472</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1535103</v>
+        <v>1535339</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7512331901134821</v>
+        <v>0.7512331901134823</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.73118063911729</v>
+        <v>0.7312754869884944</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7702263350899236</v>
+        <v>0.77034503965293</v>
       </c>
     </row>
     <row r="17">
@@ -8445,19 +8445,19 @@
         <v>6175</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3014</v>
+        <v>2860</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11167</v>
+        <v>11925</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.005455806596797247</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.002663349707993271</v>
+        <v>0.002526791117076755</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.009865860391229418</v>
+        <v>0.01053561908046194</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -8466,19 +8466,19 @@
         <v>5972</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2819</v>
+        <v>2888</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11388</v>
+        <v>12053</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.006933846920100217</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.003272926950705967</v>
+        <v>0.003353809079576176</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01322270302096842</v>
+        <v>0.01399584163819084</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>18</v>
@@ -8487,19 +8487,19 @@
         <v>12147</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7585</v>
+        <v>7127</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>19037</v>
+        <v>18492</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.006094477237300836</v>
+        <v>0.006094477237300838</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.003805716042558852</v>
+        <v>0.00357576850277493</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.009551628296010859</v>
+        <v>0.009278379202023389</v>
       </c>
     </row>
     <row r="18">
@@ -8516,19 +8516,19 @@
         <v>244333</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>214190</v>
+        <v>216551</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>278880</v>
+        <v>279331</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2158715378564592</v>
+        <v>0.2158715378564593</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1892400826387574</v>
+        <v>0.19132591880892</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2463942706383689</v>
+        <v>0.2467931971056359</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>330</v>
@@ -8537,19 +8537,19 @@
         <v>239326</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>215168</v>
+        <v>217862</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>263553</v>
+        <v>264880</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.2778951426506763</v>
+        <v>0.2778951426506764</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2498433781482672</v>
+        <v>0.2529720001734901</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3060258852499915</v>
+        <v>0.3075665080886151</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>562</v>
@@ -8558,19 +8558,19 @@
         <v>483659</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>446807</v>
+        <v>447177</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>524804</v>
+        <v>525533</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.242672332649217</v>
+        <v>0.2426723326492171</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2241820607656405</v>
+        <v>0.2243675528723796</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2633165287677361</v>
+        <v>0.2636821643189958</v>
       </c>
     </row>
     <row r="19">
@@ -8662,19 +8662,19 @@
         <v>458623</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>436801</v>
+        <v>437725</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>476480</v>
+        <v>476575</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8074858219907771</v>
+        <v>0.8074858219907768</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7690645295220242</v>
+        <v>0.7706907164182725</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8389261860661665</v>
+        <v>0.8390942335811935</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>977</v>
@@ -8683,19 +8683,19 @@
         <v>630338</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>608804</v>
+        <v>609063</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>650072</v>
+        <v>651429</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7598250132991469</v>
+        <v>0.7598250132991468</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7338673780828087</v>
+        <v>0.7341796427673395</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7836128880235691</v>
+        <v>0.7852489991452524</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1408</v>
@@ -8704,19 +8704,19 @@
         <v>1088960</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1058690</v>
+        <v>1060274</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1116875</v>
+        <v>1119468</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7791943909663486</v>
+        <v>0.7791943909663485</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.757535211749038</v>
+        <v>0.758668738561366</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7991686809457852</v>
+        <v>0.8010237508714461</v>
       </c>
     </row>
     <row r="21">
@@ -8733,19 +8733,19 @@
         <v>6763</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2869</v>
+        <v>2796</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14336</v>
+        <v>13408</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01190667435931504</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.005051318033998978</v>
+        <v>0.004922924880304443</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02524039809165788</v>
+        <v>0.02360718196078615</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>10</v>
@@ -8754,19 +8754,19 @@
         <v>6004</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3091</v>
+        <v>2833</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11534</v>
+        <v>11279</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.007237468754359853</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.003726382023109208</v>
+        <v>0.003414460354402276</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01390345353527002</v>
+        <v>0.0135960687651666</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>17</v>
@@ -8775,19 +8775,19 @@
         <v>12767</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>7622</v>
+        <v>7789</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>21054</v>
+        <v>20794</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.009135036362860676</v>
+        <v>0.009135036362860673</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.00545350650578184</v>
+        <v>0.005573105712274238</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01506476990725763</v>
+        <v>0.01487873081698516</v>
       </c>
     </row>
     <row r="22">
@@ -8804,19 +8804,19 @@
         <v>102579</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>85075</v>
+        <v>85032</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>124355</v>
+        <v>123574</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.180607503649908</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1497900214125136</v>
+        <v>0.1497138961170494</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2189494430495358</v>
+        <v>0.2175731924537205</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>301</v>
@@ -8825,19 +8825,19 @@
         <v>193241</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>174310</v>
+        <v>173314</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>214915</v>
+        <v>214110</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2329375179464933</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2101170600670451</v>
+        <v>0.2089168839586121</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2590633848123743</v>
+        <v>0.2580929980897827</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>410</v>
@@ -8846,19 +8846,19 @@
         <v>295819</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>267511</v>
+        <v>266081</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>324973</v>
+        <v>323391</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2116705726707909</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1914150329472839</v>
+        <v>0.1903917877313566</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2325308956882153</v>
+        <v>0.2313988811746944</v>
       </c>
     </row>
     <row r="23">
@@ -8950,19 +8950,19 @@
         <v>194851</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>174498</v>
+        <v>173144</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>210975</v>
+        <v>210456</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.821364449354597</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7355726637955735</v>
+        <v>0.7298619991311767</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8893351332693974</v>
+        <v>0.8871455678614152</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>907</v>
@@ -8971,19 +8971,19 @@
         <v>666253</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>640187</v>
+        <v>644936</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>686436</v>
+        <v>688949</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.7917781848225235</v>
+        <v>0.7917781848225236</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.760801242434203</v>
+        <v>0.7664455354885484</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8157638044210873</v>
+        <v>0.8187505588330929</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>999</v>
@@ -8992,19 +8992,19 @@
         <v>861103</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>829232</v>
+        <v>832047</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>887887</v>
+        <v>888821</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7982848447849507</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7687381504851225</v>
+        <v>0.7713480700224743</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8231145411498836</v>
+        <v>0.8239806477004796</v>
       </c>
     </row>
     <row r="25">
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5188</v>
+        <v>4501</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.003422207731028923</v>
@@ -9033,7 +9033,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02186802720915343</v>
+        <v>0.01897514618492909</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>17</v>
@@ -9042,19 +9042,19 @@
         <v>10668</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6476</v>
+        <v>6330</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17253</v>
+        <v>17293</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.01267843643014499</v>
+        <v>0.01267843643014498</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007695901713059612</v>
+        <v>0.007522885963906531</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02050343731503606</v>
+        <v>0.02055112653549426</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>18</v>
@@ -9063,19 +9063,19 @@
         <v>11480</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6692</v>
+        <v>7322</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>17485</v>
+        <v>18465</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01064279138903757</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.006203584827336271</v>
+        <v>0.006787598951901883</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01620950930950357</v>
+        <v>0.01711810922970317</v>
       </c>
     </row>
     <row r="26">
@@ -9092,19 +9092,19 @@
         <v>41566</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>26132</v>
+        <v>25573</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>62644</v>
+        <v>62828</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1752133429143741</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1101556674097826</v>
+        <v>0.1077973232673576</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2640684898789569</v>
+        <v>0.2648413565040695</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>233</v>
@@ -9113,19 +9113,19 @@
         <v>164543</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>144482</v>
+        <v>142265</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>188126</v>
+        <v>186458</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1955433787473315</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1717036405343711</v>
+        <v>0.169068237001785</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2235703675327389</v>
+        <v>0.2215872824808865</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>252</v>
@@ -9134,19 +9134,19 @@
         <v>206108</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>178261</v>
+        <v>178358</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>236022</v>
+        <v>236015</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1910723638260118</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1652563572116797</v>
+        <v>0.16534669723018</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2188036225308792</v>
+        <v>0.2187969607125042</v>
       </c>
     </row>
     <row r="27">
@@ -9238,19 +9238,19 @@
         <v>2728579</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2667382</v>
+        <v>2674606</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2780635</v>
+        <v>2780498</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.7930750758735089</v>
+        <v>0.7930750758735088</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7752879253605849</v>
+        <v>0.7773876318554237</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8082053605148416</v>
+        <v>0.8081655642678832</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3949</v>
@@ -9259,19 +9259,19 @@
         <v>2723289</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2675101</v>
+        <v>2673484</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2768068</v>
+        <v>2769981</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7504250310395331</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7371463616167957</v>
+        <v>0.7367008334297581</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7627642030530827</v>
+        <v>0.7632912405190991</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6568</v>
@@ -9280,19 +9280,19 @@
         <v>5451869</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5385494</v>
+        <v>5380672</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5527154</v>
+        <v>5516926</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.7711814748975597</v>
+        <v>0.7711814748975598</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7617926268987962</v>
+        <v>0.7611104176980668</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7818307285864758</v>
+        <v>0.7803839082983154</v>
       </c>
     </row>
     <row r="29">
@@ -9309,19 +9309,19 @@
         <v>20730</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>13441</v>
+        <v>13897</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>30990</v>
+        <v>30306</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.006025405545572145</v>
+        <v>0.006025405545572146</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.003906814905934095</v>
+        <v>0.004039133785748341</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.00900746753455159</v>
+        <v>0.008808673315650072</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>48</v>
@@ -9330,19 +9330,19 @@
         <v>31541</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>23891</v>
+        <v>22905</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>42445</v>
+        <v>42222</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.008691322028501673</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.006583490317839656</v>
+        <v>0.006311673959013497</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01169610878738967</v>
+        <v>0.01163456954800514</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>73</v>
@@ -9351,19 +9351,19 @@
         <v>52271</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>41657</v>
+        <v>40127</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>65940</v>
+        <v>67197</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.007393903795448984</v>
+        <v>0.007393903795448983</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.005892479199310537</v>
+        <v>0.005676134679022521</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.009327349337220587</v>
+        <v>0.009505128865289869</v>
       </c>
     </row>
     <row r="30">
@@ -9380,19 +9380,19 @@
         <v>691196</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>639583</v>
+        <v>639143</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>748203</v>
+        <v>746114</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.200899518580919</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1858979573209967</v>
+        <v>0.1857700863779214</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2174688110706979</v>
+        <v>0.2168617223733708</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1240</v>
@@ -9401,19 +9401,19 @@
         <v>874166</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>831823</v>
+        <v>827708</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>924379</v>
+        <v>922863</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.2408836469319653</v>
+        <v>0.2408836469319654</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2292157866461706</v>
+        <v>0.2280818447779466</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2547202294311885</v>
+        <v>0.254302628697759</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1895</v>
@@ -9422,19 +9422,19 @@
         <v>1565362</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1493837</v>
+        <v>1502437</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1633805</v>
+        <v>1637051</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.2214246213069913</v>
+        <v>0.2214246213069912</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2113072533700093</v>
+        <v>0.2125236967353955</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2311061375897691</v>
+        <v>0.2315652683586553</v>
       </c>
     </row>
     <row r="31">
